--- a/csv_files/3_to_5/10z/summary.xlsx
+++ b/csv_files/3_to_5/10z/summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\paper\2d_110classes_10z\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66944AEA-418C-41B9-B763-21223C53B635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Target</t>
   </si>
@@ -88,11 +89,35 @@
   <si>
     <t>bins</t>
   </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>stdev/sqrt7</t>
+  </si>
+  <si>
+    <t>10-89out</t>
+  </si>
+  <si>
+    <t>10-89true</t>
+  </si>
+  <si>
+    <t>deltatrue</t>
+  </si>
+  <si>
+    <t>delta/true</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>relbias</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,10 +233,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="1" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
+    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,9 +252,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -811,7 +836,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -1328,7 +1353,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -1664,14 +1689,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1707,9 +1732,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1721,7 +1746,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2443,6 +2467,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6154-46BF-BB2E-762A832E5AA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2459,6 +2488,8 @@
         <c:axId val="361582512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2521,6 +2552,8 @@
         <c:axId val="362323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="-0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2625,9 +2658,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2669,7 +2702,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3337,6 +3369,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-649A-4D89-8377-20B6C24E8007}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3353,6 +3390,8 @@
         <c:axId val="361580552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3415,6 +3454,8 @@
         <c:axId val="361582120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3519,9 +3560,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3558,7 +3599,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4226,6 +4266,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8449-485D-B9C6-2A37977BBA2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4242,6 +4287,8 @@
         <c:axId val="361584080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4304,6 +4351,8 @@
         <c:axId val="361584864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4408,9 +4457,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4447,7 +4496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5115,6 +5163,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F78-4143-94D0-F33ABE2A6B10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5131,6 +5184,8 @@
         <c:axId val="361584472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5193,6 +5248,7 @@
         <c:axId val="361579376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5297,9 +5353,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5341,7 +5397,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6012,6 +6067,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1F1-4E8B-B628-DFABC578BC07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6648,6 +6708,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1F1-4E8B-B628-DFABC578BC07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6664,6 +6729,8 @@
         <c:axId val="361726232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6726,6 +6793,8 @@
         <c:axId val="361720744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="-0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6794,7 +6863,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6862,9 +6930,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6901,7 +6969,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7572,6 +7639,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37C7-4601-AB5A-BCDF2077133D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8208,6 +8280,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37C7-4601-AB5A-BCDF2077133D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8224,6 +8301,8 @@
         <c:axId val="361723488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8286,6 +8365,7 @@
         <c:axId val="361725448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8354,7 +8434,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8422,9 +8501,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8461,7 +8540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9132,6 +9210,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A80-43B7-A4EE-2FE338C0DFE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9768,6 +9851,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A80-43B7-A4EE-2FE338C0DFE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9784,6 +9872,8 @@
         <c:axId val="361723096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9846,6 +9936,7 @@
         <c:axId val="361725840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9914,7 +10005,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9982,9 +10072,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10021,7 +10111,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10692,6 +10781,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC26-467B-9159-FD6D5C088DBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11328,6 +11422,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC26-467B-9159-FD6D5C088DBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11964,6 +12063,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC26-467B-9159-FD6D5C088DBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11980,6 +12084,8 @@
         <c:axId val="361727800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12042,6 +12148,8 @@
         <c:axId val="361720352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12110,7 +12218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12178,9 +12285,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12883,6 +12990,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5089-4AF2-98E0-F1AEF6020441}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -13570,6 +13682,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5089-4AF2-98E0-F1AEF6020441}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13586,6 +13703,8 @@
         <c:axId val="361578984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13716,7 +13835,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19363,7 +19481,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19396,7 +19514,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19426,7 +19550,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19456,7 +19586,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19486,7 +19622,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19518,7 +19660,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19550,7 +19698,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19582,7 +19736,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19603,18 +19763,24 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>163484</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19646,7 +19812,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -22819,20 +22991,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF138" sqref="BF138"/>
+    <sheetView tabSelected="1" topLeftCell="Y118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BF143" sqref="BF143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22853,7 +23025,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -22891,7 +23063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -22936,7 +23108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22981,7 +23153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -23026,7 +23198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -23071,7 +23243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -23116,7 +23288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -23161,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -23206,7 +23378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -23251,7 +23423,7 @@
         <v>0.29880715233359845</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -23296,7 +23468,7 @@
         <v>0.53452248382484879</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -23341,7 +23513,7 @@
         <v>2.2253945610567474</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -23386,7 +23558,7 @@
         <v>5.931654390599963</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -23431,7 +23603,7 @@
         <v>5.0023803857573164</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -23476,7 +23648,7 @@
         <v>10.331413032015284</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -23521,7 +23693,7 @@
         <v>19.673374562252068</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -23566,7 +23738,7 @@
         <v>18.76610419524166</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -23611,7 +23783,7 @@
         <v>23.177241505613299</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -23656,7 +23828,7 @@
         <v>25.85663311783799</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -23701,7 +23873,7 @@
         <v>48.093101673435754</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -23746,7 +23918,7 @@
         <v>43.866613294221402</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -23791,7 +23963,7 @@
         <v>53.607035785559773</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -23836,7 +24008,7 @@
         <v>83.886970439537322</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -23881,7 +24053,7 @@
         <v>79.77822683032305</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -23926,7 +24098,7 @@
         <v>62.064290783639755</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -23971,7 +24143,7 @@
         <v>102.40256693211219</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -24016,7 +24188,7 @@
         <v>104.53089654897892</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -24061,7 +24233,7 @@
         <v>113.81582344589292</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -24106,7 +24278,7 @@
         <v>116.14417866641118</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -24151,7 +24323,7 @@
         <v>153.89382548955473</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -24196,7 +24368,7 @@
         <v>153.77062385873569</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -24241,7 +24413,7 @@
         <v>154.36827872393499</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -24286,7 +24458,7 @@
         <v>165.70166464663737</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -24331,7 +24503,7 @@
         <v>173.63316558329572</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -24376,7 +24548,7 @@
         <v>168.99640740052942</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -24421,7 +24593,7 @@
         <v>191.85570905041658</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -24466,7 +24638,7 @@
         <v>189.69499328182198</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -24511,7 +24683,7 @@
         <v>191.71467825167394</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -24556,7 +24728,7 @@
         <v>192.66081717928657</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -24601,7 +24773,7 @@
         <v>181.11846623004462</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -24646,7 +24818,7 @@
         <v>177.90819930782388</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -24691,7 +24863,7 @@
         <v>189.21158476563693</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -24736,7 +24908,7 @@
         <v>181.83337152459117</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -24781,7 +24953,7 @@
         <v>186.90002420443676</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -24826,7 +24998,7 @@
         <v>212.47946679508544</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -24871,7 +25043,7 @@
         <v>191.8051932113861</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -24916,7 +25088,7 @@
         <v>175.8467947905086</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -24961,7 +25133,7 @@
         <v>198.23901819100431</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -25006,7 +25178,7 @@
         <v>189.47570204822219</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -25051,7 +25223,7 @@
         <v>176.31841799372384</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -25096,7 +25268,7 @@
         <v>163.15082125502917</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -25141,7 +25313,7 @@
         <v>166.89111077928285</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -25186,7 +25358,7 @@
         <v>140.81522847841626</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -25231,7 +25403,7 @@
         <v>149.84746212319351</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -25276,7 +25448,7 @@
         <v>145.99967384177529</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -25321,7 +25493,7 @@
         <v>141.08472209819109</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -25366,7 +25538,7 @@
         <v>116.7922198566652</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -25411,7 +25583,7 @@
         <v>121.10480997879482</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -25456,7 +25628,7 @@
         <v>115.31406390086741</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -25501,7 +25673,7 @@
         <v>127.3812939470276</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -25546,7 +25718,7 @@
         <v>124.3261599488179</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -25591,7 +25763,7 @@
         <v>107.17931125877215</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -25636,7 +25808,7 @@
         <v>93.356459719874621</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -25681,7 +25853,7 @@
         <v>88.745455953423061</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -25726,7 +25898,7 @@
         <v>81.647762632280021</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -25771,7 +25943,7 @@
         <v>81.702676706166628</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -25816,7 +25988,7 @@
         <v>74.848895401716803</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -25861,7 +26033,7 @@
         <v>63.849851772956931</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -25906,7 +26078,7 @@
         <v>71.854971329490525</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -25951,7 +26123,7 @@
         <v>56.167055248055291</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -25996,7 +26168,7 @@
         <v>53.657423043033369</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -26041,7 +26213,7 @@
         <v>47.805595906755521</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -26086,7 +26258,7 @@
         <v>44.385151421017667</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -26131,7 +26303,7 @@
         <v>45.612694035135185</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -26176,7 +26348,7 @@
         <v>42.734437434663199</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -26221,7 +26393,7 @@
         <v>31.364124941297714</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -26266,7 +26438,7 @@
         <v>28.332948176653847</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -26311,7 +26483,7 @@
         <v>24.611142462984798</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -26356,7 +26528,7 @@
         <v>25.972512942944675</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -26401,7 +26573,7 @@
         <v>28.42659720352453</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -26446,7 +26618,7 @@
         <v>19.559433237479777</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -26491,7 +26663,7 @@
         <v>20.433253709158929</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -26536,7 +26708,7 @@
         <v>15.447106371035815</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -26581,7 +26753,7 @@
         <v>12.469963913339928</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -26626,7 +26798,7 @@
         <v>12.920775076264913</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -26671,7 +26843,7 @@
         <v>9.717130185791433</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -26716,7 +26888,7 @@
         <v>7.2139910359430495</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -26761,7 +26933,7 @@
         <v>4.6058968414724308</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -26806,7 +26978,7 @@
         <v>5.2007325491337326</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
@@ -26851,7 +27023,7 @@
         <v>4.0089186286863656</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -26896,7 +27068,7 @@
         <v>2.9990077724220088</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -26941,7 +27113,7 @@
         <v>3.7161167647860331</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -26986,7 +27158,7 @@
         <v>2.6265584942676461</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
@@ -27031,7 +27203,7 @@
         <v>1.2724180205607036</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -27076,7 +27248,7 @@
         <v>2.1588687513867737</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
@@ -27121,7 +27293,7 @@
         <v>1.2511899098363088</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
@@ -27166,7 +27338,7 @@
         <v>0.81649658092772615</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -27211,7 +27383,7 @@
         <v>1.0662573619463369</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -27256,7 +27428,7 @@
         <v>0.57217213527132937</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
@@ -27301,7 +27473,7 @@
         <v>0.89642145700079523</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
@@ -27346,7 +27518,7 @@
         <v>0.43643578047198478</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
@@ -27391,7 +27563,7 @@
         <v>0.30860669992418382</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
@@ -27436,7 +27608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
@@ -27481,7 +27653,7 @@
         <v>0.2672612419124244</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -27526,7 +27698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -27571,7 +27743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
@@ -27616,7 +27788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
@@ -27661,7 +27833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
@@ -27706,7 +27878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
@@ -27751,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -27796,7 +27968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -27841,7 +28013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -27862,7 +28034,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>0</v>
       </c>
@@ -27918,7 +28090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -27963,7 +28135,7 @@
         <v>2.9714143655398599</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -28008,7 +28180,7 @@
         <v>4.5148515219886916</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -28053,7 +28225,7 @@
         <v>6.3103509034903951</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -28098,7 +28270,7 @@
         <v>5.3937105119907311</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -28143,7 +28315,7 @@
         <v>4.8119719731478785</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -28188,7 +28360,7 @@
         <v>4.6731426192402976</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -28233,7 +28405,7 @@
         <v>6.7349291446934236</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -28302,7 +28474,7 @@
         <v>2.2171650929951729</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -28371,7 +28543,7 @@
         <v>9.9384920887193537</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -28440,7 +28612,7 @@
         <v>1.0679699953706108</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10</v>
       </c>
@@ -28509,7 +28681,7 @@
         <v>0.12635355225880876</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11</v>
       </c>
@@ -28578,7 +28750,7 @@
         <v>0.27246327703415069</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -28647,7 +28819,7 @@
         <v>0.16873672064632289</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13</v>
       </c>
@@ -28716,7 +28888,7 @@
         <v>1.0819525272433808E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -28785,7 +28957,7 @@
         <v>0.35915803655043049</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>15</v>
       </c>
@@ -28854,7 +29026,7 @@
         <v>1.591745635082159</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>16</v>
       </c>
@@ -28923,7 +29095,7 @@
         <v>0.51046327630695099</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17</v>
       </c>
@@ -28992,7 +29164,7 @@
         <v>0.61396831315097522</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18</v>
       </c>
@@ -29061,7 +29233,7 @@
         <v>0.28871546716328944</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
@@ -29130,7 +29302,7 @@
         <v>0.12181908909662181</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20</v>
       </c>
@@ -29199,7 +29371,7 @@
         <v>0.61977855610952803</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>21</v>
       </c>
@@ -29268,7 +29440,7 @@
         <v>2.0914216673443742E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>22</v>
       </c>
@@ -29337,7 +29509,7 @@
         <v>0.35431459851514646</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>23</v>
       </c>
@@ -29406,7 +29578,7 @@
         <v>0.17827485060696144</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24</v>
       </c>
@@ -29475,7 +29647,7 @@
         <v>3.7808348200483205E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>25</v>
       </c>
@@ -29544,7 +29716,7 @@
         <v>6.5767175102318512E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>26</v>
       </c>
@@ -29613,7 +29785,7 @@
         <v>2.4560695857295516E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>27</v>
       </c>
@@ -29682,7 +29854,7 @@
         <v>2.7116179151983191E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>28</v>
       </c>
@@ -29751,7 +29923,7 @@
         <v>0.13709203714883716</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>29</v>
       </c>
@@ -29820,7 +29992,7 @@
         <v>0.2370633800863137</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>30</v>
       </c>
@@ -29889,7 +30061,7 @@
         <v>1.8072694476029233E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>31</v>
       </c>
@@ -29958,7 +30130,7 @@
         <v>0.27197902479194308</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>32</v>
       </c>
@@ -30027,7 +30199,7 @@
         <v>0.34204797662899389</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>33</v>
       </c>
@@ -30096,7 +30268,7 @@
         <v>7.099890788342075E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>34</v>
       </c>
@@ -30165,7 +30337,7 @@
         <v>3.790592057389728E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>35</v>
       </c>
@@ -30234,7 +30406,7 @@
         <v>4.1573927522290111E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>36</v>
       </c>
@@ -30303,7 +30475,7 @@
         <v>1.0546689632006596</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>37</v>
       </c>
@@ -30372,7 +30544,7 @@
         <v>0.10837167534729529</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>38</v>
       </c>
@@ -30441,7 +30613,7 @@
         <v>0.8894757661747742</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>39</v>
       </c>
@@ -30510,7 +30682,7 @@
         <v>5.8956252549206369E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>40</v>
       </c>
@@ -30579,7 +30751,7 @@
         <v>0.53642192533845368</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>41</v>
       </c>
@@ -30648,7 +30820,7 @@
         <v>3.8789566898641513E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>42</v>
       </c>
@@ -30717,7 +30889,7 @@
         <v>5.9749147063006589E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>43</v>
       </c>
@@ -30786,7 +30958,7 @@
         <v>1.0582584429646409</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>44</v>
       </c>
@@ -30855,7 +31027,7 @@
         <v>0.68037901910756915</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>45</v>
       </c>
@@ -30924,7 +31096,7 @@
         <v>4.401223800917199E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>46</v>
       </c>
@@ -30993,7 +31165,7 @@
         <v>9.5165659519165932E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>47</v>
       </c>
@@ -31062,7 +31234,7 @@
         <v>0.34515606336066823</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>48</v>
       </c>
@@ -31131,7 +31303,7 @@
         <v>0.14921494219897316</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>49</v>
       </c>
@@ -31200,7 +31372,7 @@
         <v>1.5201522527960705</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>50</v>
       </c>
@@ -31269,7 +31441,7 @@
         <v>0.57867104599317587</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>51</v>
       </c>
@@ -31338,7 +31510,7 @@
         <v>0.13027525844172089</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>52</v>
       </c>
@@ -31407,7 +31579,7 @@
         <v>0.11429639059989713</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>53</v>
       </c>
@@ -31476,7 +31648,7 @@
         <v>3.5398083363963329E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>54</v>
       </c>
@@ -31545,7 +31717,7 @@
         <v>3.0363720690174647E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>55</v>
       </c>
@@ -31614,7 +31786,7 @@
         <v>0.28395726137903304</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>56</v>
       </c>
@@ -31683,7 +31855,7 @@
         <v>5.003111475362693E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>57</v>
       </c>
@@ -31752,7 +31924,7 @@
         <v>0.38497996707612342</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>58</v>
       </c>
@@ -31821,7 +31993,7 @@
         <v>0.12622219045645797</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>59</v>
       </c>
@@ -31890,7 +32062,7 @@
         <v>2.2772120093756822E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>60</v>
       </c>
@@ -31959,7 +32131,7 @@
         <v>0.10130869717294219</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>61</v>
       </c>
@@ -32028,7 +32200,7 @@
         <v>0.25498595805355656</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>62</v>
       </c>
@@ -32097,7 +32269,7 @@
         <v>1.4562742936082078E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>63</v>
       </c>
@@ -32166,7 +32338,7 @@
         <v>1.568433505302973E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>64</v>
       </c>
@@ -32235,7 +32407,7 @@
         <v>5.3582672589122457E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>65</v>
       </c>
@@ -32304,7 +32476,7 @@
         <v>0.16660487086755432</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>66</v>
       </c>
@@ -32373,7 +32545,7 @@
         <v>1.0564663581534649E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>67</v>
       </c>
@@ -32442,7 +32614,7 @@
         <v>0.60094176016423051</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>68</v>
       </c>
@@ -32511,7 +32683,7 @@
         <v>0.42542818124205961</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>69</v>
       </c>
@@ -32580,7 +32752,7 @@
         <v>0.37205816114344031</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>70</v>
       </c>
@@ -32649,7 +32821,7 @@
         <v>0.75699147760422358</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>71</v>
       </c>
@@ -32718,7 +32890,7 @@
         <v>0.44793312594793899</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>72</v>
       </c>
@@ -32787,7 +32959,7 @@
         <v>0.3374177802650426</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>73</v>
       </c>
@@ -32856,7 +33028,7 @@
         <v>0.74052378845776512</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>74</v>
       </c>
@@ -32925,7 +33097,7 @@
         <v>1.0095759621461864E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>75</v>
       </c>
@@ -32994,7 +33166,7 @@
         <v>3.0778591359353479E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>76</v>
       </c>
@@ -33063,7 +33235,7 @@
         <v>0.10565614396260349</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>77</v>
       </c>
@@ -33132,7 +33304,7 @@
         <v>0.10333831845838888</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>78</v>
       </c>
@@ -33201,7 +33373,7 @@
         <v>2.2150520333410337E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>79</v>
       </c>
@@ -33270,7 +33442,7 @@
         <v>0.36937899975811328</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>80</v>
       </c>
@@ -33339,7 +33511,7 @@
         <v>1.3171065426709301E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>81</v>
       </c>
@@ -33408,7 +33580,7 @@
         <v>1.1118453249622653</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>82</v>
       </c>
@@ -33477,7 +33649,7 @@
         <v>0.88099864548185403</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>83</v>
       </c>
@@ -33546,7 +33718,7 @@
         <v>0.14124874105230836</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>84</v>
       </c>
@@ -33615,7 +33787,7 @@
         <v>1.8686826993807795</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>85</v>
       </c>
@@ -33684,7 +33856,7 @@
         <v>1.1499874824003741E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>86</v>
       </c>
@@ -33753,7 +33925,7 @@
         <v>3.7977046626468511</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>87</v>
       </c>
@@ -33822,7 +33994,7 @@
         <v>6.4011973491871323E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>88</v>
       </c>
@@ -33891,7 +34063,7 @@
         <v>4.138830643772527E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>89</v>
       </c>
@@ -33960,7 +34132,7 @@
         <v>6.6106428176136919E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>90</v>
       </c>
@@ -34029,7 +34201,7 @@
         <v>0.20737544520818535</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>91</v>
       </c>
@@ -34098,7 +34270,7 @@
         <v>4.0557730956038416</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>92</v>
       </c>
@@ -34167,7 +34339,7 @@
         <v>2.0738201404999388</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>93</v>
       </c>
@@ -34236,7 +34408,7 @@
         <v>4.5854328079986087E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>94</v>
       </c>
@@ -34305,7 +34477,7 @@
         <v>3.7177308312601185</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>95</v>
       </c>
@@ -34374,7 +34546,7 @@
         <v>4.0256363273925316E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>96</v>
       </c>
@@ -34443,7 +34615,7 @@
         <v>1.2524184302926895</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -34512,7 +34684,7 @@
         <v>13.945488314409241</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>98</v>
       </c>
@@ -34581,7 +34753,7 @@
         <v>6.8095325593806812</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>99</v>
       </c>
@@ -34650,7 +34822,7 @@
         <v>3.0825841952017628E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>100</v>
       </c>
@@ -34703,7 +34875,7 @@
         <v>0.99082228844053344</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>101</v>
       </c>
@@ -34756,7 +34928,7 @@
         <v>3.8156774574890515</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>102</v>
       </c>
@@ -34809,7 +34981,7 @@
         <v>4.6634149806340996</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>103</v>
       </c>
@@ -34862,7 +35034,7 @@
         <v>0.18859849659201999</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>104</v>
       </c>
@@ -34915,7 +35087,7 @@
         <v>-0.86257582850521275</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>105</v>
       </c>
@@ -34968,7 +35140,7 @@
         <v>-0.75411353982053531</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>106</v>
       </c>
@@ -35021,7 +35193,7 @@
         <v>-0.48785437364130435</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>107</v>
       </c>
@@ -35074,7 +35246,7 @@
         <v>2.815190241672092</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>108</v>
       </c>
@@ -35127,7 +35299,7 @@
         <v>-4.0063459058292192</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>109</v>
       </c>
@@ -35180,7 +35352,15 @@
         <v>-8.6227586283348341</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J239" t="s">
+        <v>17</v>
+      </c>
+      <c r="K239" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -35217,7 +35397,7 @@
         <v>182211.65395871975</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -35254,7 +35434,7 @@
         <v>183450</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -35291,7 +35471,7 @@
         <v>-1238.3460412802524</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -35336,7 +35516,7 @@
         <v>3.6403281972681202E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -35371,6 +35551,277 @@
       <c r="I244">
         <f t="shared" si="36"/>
         <v>8.3592309509646903</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245">
+        <f>SUM(B133:B212)</f>
+        <v>160772.87830872755</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ref="C245:I245" si="37">SUM(C133:C212)</f>
+        <v>179106.3088100513</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="37"/>
+        <v>194308.40519126051</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="37"/>
+        <v>197896.08269472164</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="37"/>
+        <v>187506.37948388877</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="37"/>
+        <v>197317.51039926027</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="37"/>
+        <v>192457.9060970495</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="37"/>
+        <v>182224.09703095682</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246">
+        <f>SUM(B10:B92)</f>
+        <v>161297</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ref="C246:I246" si="38">SUM(C10:C92)</f>
+        <v>181462</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="38"/>
+        <v>192775</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="38"/>
+        <v>194488</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="38"/>
+        <v>186871</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="38"/>
+        <v>196435</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="38"/>
+        <v>192996</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="38"/>
+        <v>183404</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247">
+        <f>B241-B246</f>
+        <v>54</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ref="C247:I247" si="39">C241-C246</f>
+        <v>57</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="39"/>
+        <v>47</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="39"/>
+        <v>32</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="39"/>
+        <v>33</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="39"/>
+        <v>62</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="39"/>
+        <v>19</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="39"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248">
+        <f>B247/B241</f>
+        <v>3.3467409560523329E-4</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ref="C248:I248" si="40">C247/C241</f>
+        <v>3.1401671450371587E-4</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="40"/>
+        <v>2.4374812002779766E-4</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="40"/>
+        <v>1.645075056549455E-4</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="40"/>
+        <v>1.7656122929418311E-4</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="40"/>
+        <v>3.1552644569637195E-4</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="40"/>
+        <v>9.8437945237416787E-5</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="40"/>
+        <v>2.5074952303079856E-4</v>
+      </c>
+      <c r="J248">
+        <f>AVERAGE(B248:I248)</f>
+        <v>2.3727769738130785E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249">
+        <f t="shared" ref="B249:I249" si="41">B245-B246</f>
+        <v>-524.12169127244852</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="41"/>
+        <v>-2355.6911899487022</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="41"/>
+        <v>1533.4051912605064</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="41"/>
+        <v>3408.082694721641</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="41"/>
+        <v>635.37948388876976</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="41"/>
+        <v>882.51039926026715</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="41"/>
+        <v>-538.09390295049525</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="41"/>
+        <v>-1179.902969043178</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250">
+        <f t="shared" ref="B250:I250" si="42">B249/B246</f>
+        <v>-3.2494199599028407E-3</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="42"/>
+        <v>-1.2981732759193121E-2</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="42"/>
+        <v>7.9543778563636695E-3</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="42"/>
+        <v>1.7523357197984663E-2</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="42"/>
+        <v>3.4000967720447246E-3</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="42"/>
+        <v>4.4926331827844692E-3</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="42"/>
+        <v>-2.7881090952687894E-3</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="42"/>
+        <v>-6.433354610821891E-3</v>
+      </c>
+      <c r="J250">
+        <f>AVERAGE(B250:I250)</f>
+        <v>9.8973107299886063E-4</v>
+      </c>
+      <c r="K250">
+        <f>STDEV(B250:I250)/SQRT(7)</f>
+        <v>3.5642607046132172E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <f t="shared" ref="B251:I251" si="43">B249*B249/B246</f>
+        <v>1.7030914850387286</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="43"/>
+        <v>30.580953491099695</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="43"/>
+        <v>12.197284298195671</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="43"/>
+        <v>59.721050419877429</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="43"/>
+        <v>2.1603517321936492</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="43"/>
+        <v>3.9647955038690466</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="43"/>
+        <v>1.500264504924957</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="43"/>
+        <v>7.590734206216367</v>
       </c>
     </row>
   </sheetData>
